--- a/LiveProjectTrainingContent.xlsx
+++ b/LiveProjectTrainingContent.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TrainingDetails_2020\TrainingDitails\TecnoWings_KandleSir\Internship-06_Nov2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
     <sheet name="Students_details" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Total Hours</t>
   </si>
@@ -220,13 +215,19 @@
   </si>
   <si>
     <t>Sr .No.</t>
+  </si>
+  <si>
+    <t>Tanay Malviya</t>
+  </si>
+  <si>
+    <t>tanaymalviya3004@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +291,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -587,10 +596,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,6 +642,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,17 +675,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,7 +772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,7 +949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,25 +963,25 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1120,10 +1132,10 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
@@ -1198,7 +1210,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
         <v>27</v>
@@ -1210,7 +1222,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12" t="s">
@@ -1220,7 +1232,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
@@ -1230,7 +1242,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
@@ -1240,7 +1252,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -1248,7 +1260,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>32</v>
@@ -1260,7 +1272,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
@@ -1270,7 +1282,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -1278,7 +1290,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>35</v>
@@ -1290,7 +1302,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12" t="s">
@@ -1300,7 +1312,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12" t="s">
@@ -1310,7 +1322,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12" t="s">
@@ -1320,7 +1332,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -1328,7 +1340,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
@@ -1336,7 +1348,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="11" t="s">
         <v>40</v>
@@ -1348,7 +1360,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12" t="s">
@@ -1358,7 +1370,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
@@ -1368,7 +1380,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
@@ -1378,7 +1390,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
@@ -1386,7 +1398,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="11" t="s">
         <v>45</v>
@@ -1398,7 +1410,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12" t="s">
@@ -1408,7 +1420,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12" t="s">
@@ -1418,7 +1430,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -1426,7 +1438,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="11" t="s">
         <v>49</v>
@@ -1438,7 +1450,7 @@
       <c r="E45" s="18"/>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="26" t="s">
@@ -1448,7 +1460,7 @@
       <c r="E46" s="18"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
@@ -1456,7 +1468,7 @@
       <c r="E47" s="18"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="16" t="s">
         <v>52</v>
@@ -1468,7 +1480,7 @@
       <c r="E48" s="18"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
@@ -1476,7 +1488,7 @@
       <c r="E49" s="18"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="20"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -1484,16 +1496,16 @@
       <c r="E50" s="21"/>
       <c r="F50" s="22"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1509,186 +1521,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="29"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="B4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8055571317</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
         <v>3</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
         <v>5</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
         <v>6</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>7</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>8</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
         <v>9</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
         <v>11</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
         <v>12</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
         <v>13</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
         <v>14</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
         <v>15</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
         <v>16</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
         <v>17</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
         <v>18</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
         <v>19</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
         <v>20</v>
       </c>
       <c r="B23" s="13"/>
@@ -1696,7 +1714,10 @@
       <c r="D23" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>